--- a/COEFICIENTES DE CO_PROPIEDAD.xlsx
+++ b/COEFICIENTES DE CO_PROPIEDAD.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\E0305878\OneDrive - Ecopetrol S.A\Documentos\Proyectos Analitica\python\co_propiedad\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ecopetrol-my.sharepoint.com/personal/juan_vega_ecopetrol_com_co/Documents/Documentos/Proyectos Analitica/python/co_propiedad/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E510B92A-0798-49AF-BED5-B1611F25ED67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{8E0CC071-C45B-44A3-B3AD-DE5BB55D148C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{531E2E13-8E0D-4A37-9F35-EABB64CDF4FF}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,10 +35,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>Ticket</t>
+    <t>Coeficiente</t>
   </si>
   <si>
-    <t>Categoría</t>
+    <t>Apartamentos</t>
   </si>
 </sst>
 </file>
@@ -396,7 +396,7 @@
   <dimension ref="A1:B241"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -407,10 +407,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -2146,7 +2146,7 @@
         <v>11501</v>
       </c>
       <c r="B218" s="2">
-        <v>0.46400000000000002</v>
+        <v>0.46300000000000002</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.3">
@@ -2154,7 +2154,7 @@
         <v>11502</v>
       </c>
       <c r="B219" s="2">
-        <v>0.46400000000000002</v>
+        <v>0.46300000000000002</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.3">
@@ -2162,7 +2162,7 @@
         <v>11503</v>
       </c>
       <c r="B220" s="2">
-        <v>0.46500000000000002</v>
+        <v>0.46400000000000002</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.3">
@@ -2170,7 +2170,7 @@
         <v>11504</v>
       </c>
       <c r="B221" s="2">
-        <v>0.46500000000000002</v>
+        <v>0.46400000000000002</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.3">
@@ -2306,7 +2306,7 @@
         <v>12501</v>
       </c>
       <c r="B238" s="2">
-        <v>0.46400000000000002</v>
+        <v>0.46300000000000002</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.3">
@@ -2314,7 +2314,7 @@
         <v>12502</v>
       </c>
       <c r="B239" s="2">
-        <v>0.46400000000000002</v>
+        <v>0.46300000000000002</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.3">
@@ -2322,7 +2322,7 @@
         <v>12503</v>
       </c>
       <c r="B240" s="2">
-        <v>0.46500000000000002</v>
+        <v>0.46400000000000002</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.3">
@@ -2330,7 +2330,7 @@
         <v>12504</v>
       </c>
       <c r="B241" s="2">
-        <v>0.46500000000000002</v>
+        <v>0.46400000000000002</v>
       </c>
     </row>
   </sheetData>
